--- a/02_script/11_rendimentos/rendimentos_uf.xlsx
+++ b/02_script/11_rendimentos/rendimentos_uf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\materno_infantil\02_script\11_rendimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6096D-C1CF-45C6-84E8-272F1066E3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F54A4C-F4CE-4C31-959C-69C1D7498F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="67">
   <si>
     <t>ano</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>RJ</t>
+  </si>
+  <si>
+    <t>Enfermeiro</t>
   </si>
 </sst>
 </file>
@@ -608,15 +611,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -641,7 +645,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -650,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>11060.079619288161</v>
+        <v>11486.94</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -661,7 +665,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -670,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>11973.324634844799</v>
+        <v>9379.25</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -681,7 +685,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -690,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>8233.3287491607298</v>
+        <v>17507.400000000001</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -701,7 +705,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -710,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>9979.278356555782</v>
+        <v>12172.29</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -721,7 +725,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -730,7 +734,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2">
-        <v>11123.20316031467</v>
+        <v>8800.5499999999993</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -741,7 +745,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -750,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="2">
-        <v>10529.14022411477</v>
+        <v>10210.27</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -761,7 +765,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -770,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>9078.8366679070095</v>
+        <v>10135.65</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -781,7 +785,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -790,7 +794,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="2">
-        <v>8118.3072607692266</v>
+        <v>9689.2099999999991</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -801,7 +805,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -810,7 +814,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>8833.7890103433529</v>
+        <v>16816</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -821,7 +825,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -830,7 +834,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="2">
-        <v>13447.40671025128</v>
+        <v>13968.47</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
@@ -841,7 +845,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -850,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>7079.2232258603417</v>
+        <v>10188.1</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -861,7 +865,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -870,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>10098.31704219275</v>
+        <v>13435.09</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -881,7 +885,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -890,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>6115.9868594643676</v>
+        <v>12015.82</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -901,7 +905,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -910,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="2">
-        <v>11464.43998214432</v>
+        <v>12456.86</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -921,7 +925,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -930,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="2">
-        <v>9533.3420657427832</v>
+        <v>8992.5499999999993</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -941,7 +945,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -950,7 +954,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="2">
-        <v>9015.8562209893407</v>
+        <v>12852.81</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -961,7 +965,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -970,7 +974,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>9286.3530157177374</v>
+        <v>13461.6</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -981,7 +985,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -990,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="2">
-        <v>9263.5001655955421</v>
+        <v>13222.39</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -1001,7 +1005,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1010,7 +1014,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="2">
-        <v>8691.7558447508563</v>
+        <v>17702.75</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
@@ -1021,7 +1025,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1030,7 +1034,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>14769.73656478858</v>
+        <v>8529.75</v>
       </c>
       <c r="E21" t="s">
         <v>57</v>
@@ -1041,7 +1045,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1050,7 +1054,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2">
-        <v>9919.3828142720995</v>
+        <v>11771.1</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -1061,7 +1065,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1070,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="2">
-        <v>7179.9440061758132</v>
+        <v>18268.5</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -1081,7 +1085,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1090,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>12773.622887585319</v>
+        <v>10378.4</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1101,7 +1105,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1110,7 +1114,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>11804.18971342513</v>
+        <v>15363.03</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -1121,7 +1125,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1130,7 +1134,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="2">
-        <v>7999.1314108379893</v>
+        <v>9384.9</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1150,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>10501.342969929119</v>
+        <v>11829.97</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -1161,7 +1165,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1170,12 +1174,552 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>9260.0329513165725</v>
+        <v>13984.51</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4576.97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3510.18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3892.69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5316.27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3771.93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3890.27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6391.99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4209.33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4364.0200000000004</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3377.17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4165.8599999999997</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4558.6000000000004</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4527.71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3928.36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4365.43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3427.01</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4305.5600000000004</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4966.5600000000004</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4603.1099999999997</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3098.52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3529.39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4753.32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5770.54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4687.2299999999996</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4207.53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5175.97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3478.26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
         <v>9</v>
       </c>
     </row>
